--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_AddConversation_16.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_AddConversation_16.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,31 +46,55 @@
     <t>王国信</t>
   </si>
   <si>
+    <t>WangGuoXin</t>
+  </si>
+  <si>
+    <t>烫洗的过程与温器的过程也有相似之处。</t>
+  </si>
+  <si>
+    <t>The process of scalding is also somewhat similar to the process of dessication.</t>
+  </si>
+  <si>
+    <t>约翰逊</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>原来泡茶还有这些讲究，茶具从茶盘到盖置，摆得整整齐齐，连茶夹用完都放回固定的位置，没一点乱；</t>
+  </si>
+  <si>
+    <t>It turns out that there are so many subtleties in making tea. The tea utensils, from the tea tray to the lid rest, are arranged neatly, and even the tea tongs are returned to their designated place after use, without a hint of disorder.</t>
+  </si>
+  <si>
+    <t>煮水、温杯、投茶的顺序也丝毫不慌，每一步都按规矩来，却又不显得刻意，反而让喝茶的人跟着静下心来，</t>
+  </si>
+  <si>
+    <t>Boiling water, warming the cup, and adding the tea are done in a calm and unhurried sequence. Every step follows the proper procedure, yet it doesn't feel forced; instead, it helps those drinking the tea to settle their minds.</t>
+  </si>
+  <si>
+    <t>这种‘有规矩但不刻板’的感觉，太难得的了。</t>
+  </si>
+  <si>
+    <t>This feeling of being 'well-disciplined but not rigid' is so rare.</t>
+  </si>
+  <si>
+    <t>哈哈，多谢您的夸奖，您喝的开心我也会很开心</t>
+  </si>
+  <si>
+    <t>Haha, thank you for your compliment. If you enjoy your drink, I will be very happy too.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>烫洗的过程与温器的过程也有相似之处。</t>
-  </si>
-  <si>
-    <t>约翰逊</t>
-  </si>
-  <si>
-    <t>原来泡茶还有这些讲究，茶具从茶盘到盖置，摆得整整齐齐，连茶夹用完都放回固定的位置，没一点乱；</t>
-  </si>
-  <si>
-    <t>煮水、温杯、投茶的顺序也丝毫不慌，每一步都按规矩来，却又不显得刻意，反而让喝茶的人跟着静下心来，</t>
-  </si>
-  <si>
-    <t>这种‘有规矩但不刻板’的感觉，太难得的了。</t>
-  </si>
-  <si>
-    <t>哈哈，多谢您的夸奖，您喝的开心我也会很开心</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>下一步</t>
+  </si>
+  <si>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1038,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1044,49 +1068,49 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1097,24 +1121,24 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
